--- a/Resources/analysis.xlsx
+++ b/Resources/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CLR RED</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Net Ratio</t>
+  </si>
+  <si>
+    <t>LSB cải tiến</t>
   </si>
 </sst>
 </file>
@@ -61,7 +64,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,21 +188,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,81 +528,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Resources/analysis.xlsx
+++ b/Resources/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CLR RED</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Net Ratio</t>
-  </si>
-  <si>
-    <t>LSB cải tiến</t>
   </si>
 </sst>
 </file>
@@ -64,7 +61,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -97,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -188,38 +185,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,94 +508,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+    <row r="1" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+    <row r="3" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+    <row r="4" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
